--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41543.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>7.84</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41543.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.79</v>
+        <v>2.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>115.12</v>
+        <v>11.51</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.45</v>
+        <v>2.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.64</v>
+        <v>1.46</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.94</v>
+        <v>2.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41543.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.27</v>
+        <v>4.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.95</v>
+        <v>3.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.72</v>
+        <v>5.47</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>214.71</v>
+        <v>21.47</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>40.75</v>
+        <v>4.07</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.58</v>
+        <v>4.96</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41543.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.84</v>
+        <v>3.78</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.01</v>
+        <v>3.1</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.34</v>
+        <v>1.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>54.15</v>
+        <v>5.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.34</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>200.99</v>
+        <v>20.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.29</v>
+        <v>3.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.64</v>
+        <v>2.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.08</v>
+        <v>1.11</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>49.14</v>
+        <v>4.91</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41543.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>19.17</v>
+        <v>1.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.85</v>
+        <v>0.39</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>45.38</v>
+        <v>4.54</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41543.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23.95</v>
+        <v>2.4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>87.64</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41543.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.32</v>
+        <v>1.03</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>29.99</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.63</v>
+        <v>1.06</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>40.44</v>
+        <v>4.04</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>157.47</v>
+        <v>15.75</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.22</v>
+        <v>3.02</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>36.56</v>
+        <v>3.66</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41543.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.8</v>
+        <v>2.98</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.48</v>
+        <v>2.45</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>42.24</v>
+        <v>4.22</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.45</v>
+        <v>0.34</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>156.34</v>
+        <v>15.63</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>38.36</v>
+        <v>3.84</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41543.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J10" s="4" t="n">
+      <c r="T10" s="4" t="n">
         <v>1.11</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
+      <c r="U10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC10" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AD10" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,27 +447,27 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41543.34027777778</v>
+        <v>44792.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.89</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V2" s="4" t="n">
+      <c r="AA2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41543.34722222222</v>
+        <v>44792.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.89</v>
+        <v>1.06</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.51</v>
+        <v>11.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>1.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41543.35416666666</v>
+        <v>44792.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.37</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.03</v>
+        <v>2.98</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.3</v>
+        <v>2.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.47</v>
+        <v>4.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.47</v>
+        <v>15.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.07</v>
+        <v>3.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.73</v>
+        <v>2.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.96</v>
+        <v>3.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41543.36111111111</v>
+        <v>44792.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.72</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.42</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.78</v>
+        <v>1.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.42</v>
+        <v>1.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.1</v>
+        <v>0.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.41</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.47</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.38</v>
-      </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.65</v>
+        <v>0.96</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.91</v>
+        <v>1.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41543.36805555555</v>
+        <v>44792.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.42</v>
+        <v>9.93</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.32</v>
+        <v>7.73</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.95</v>
+        <v>21.67</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.76</v>
+        <v>18.03</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.31</v>
+        <v>7.95</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.92</v>
+        <v>29.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.52</v>
+        <v>12.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.27</v>
+        <v>5.47</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.35</v>
+        <v>8.48</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.39</v>
+        <v>9.34</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.41</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.11</v>
+        <v>2.41</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.34</v>
+        <v>7.71</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.48</v>
+        <v>11.28</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.3</v>
+        <v>6.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>4.54</v>
+        <v>112.69</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1</v>
+        <v>21.95</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.32</v>
+        <v>7.05</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.66</v>
+        <v>14.75</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.36</v>
+        <v>8.07</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.89</v>
+        <v>14.64</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.28</v>
+        <v>6.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.28</v>
+        <v>6.05</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.33</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.42</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.78</v>
+        <v>26.46</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.2</v>
+        <v>4.24</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41543.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41543.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41543.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41543.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41543.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13.09</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>64.72</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -443,8 +443,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -452,9 +452,9 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44792.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44792.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.23</v>
+        <v>22.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.79</v>
+        <v>27.89</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.82</v>
+        <v>118.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44792.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.49</v>
+        <v>24.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.1</v>
+        <v>40.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.81</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.05</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.84</v>
+        <v>158.38</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.04</v>
+        <v>30.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.38</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.71</v>
+        <v>37.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44792.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="S5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>5.55</v>
+        <v>55.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44792.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44792.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.16</v>
+        <v>10.159</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>8.359999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.28</v>
+        <v>22.276</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.4</v>
+        <v>8.396000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.89</v>
+        <v>27.891</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.63</v>
+        <v>12.631</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.66</v>
+        <v>5.663</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.35</v>
+        <v>9.353</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.58</v>
+        <v>10.576</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>9.470000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.34</v>
+        <v>2.344</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.83</v>
+        <v>7.832</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.801</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.76</v>
+        <v>6.759</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.17</v>
+        <v>118.169</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.97</v>
+        <v>22.966</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.12</v>
+        <v>7.118</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.193</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>8.710000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.8</v>
+        <v>14.804</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.57</v>
+        <v>6.573</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.96</v>
+        <v>6.963</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.57</v>
+        <v>6.565</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.04</v>
+        <v>25.045</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.42</v>
+        <v>4.422</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.307</v>
       </c>
     </row>
     <row r="4">
@@ -863,10 +863,10 @@
         <v>44792.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.66</v>
+        <v>13.664</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.68</v>
@@ -875,25 +875,25 @@
         <v>29.84</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.88</v>
+        <v>24.876</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11</v>
+        <v>10.999</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>40.96</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.79</v>
+        <v>16.788</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.55</v>
+        <v>7.547</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.81</v>
+        <v>11.808</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.05</v>
+        <v>13.054</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>12.67</v>
@@ -902,64 +902,64 @@
         <v>3.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.6</v>
+        <v>10.598</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.59</v>
+        <v>15.592</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>8.99</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.38</v>
+        <v>158.383</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.41</v>
+        <v>30.408</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.69</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.38</v>
+        <v>20.383</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.19</v>
+        <v>11.192</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.65</v>
+        <v>20.654</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.762</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.48</v>
+        <v>8.483000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.25</v>
+        <v>13.255</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.11</v>
+        <v>37.108</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>5.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44792.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44792.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.08</v>
+        <v>5.083</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.16</v>
+        <v>4.157</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.15</v>
+        <v>11.149</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.366</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.18</v>
+        <v>4.179</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.74</v>
+        <v>19.739</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.35</v>
+        <v>6.351</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.897</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.65</v>
+        <v>4.651</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.73</v>
+        <v>4.731</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.174</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.905</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.97</v>
+        <v>5.974</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.403</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.48</v>
+        <v>55.477</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.53</v>
+        <v>3.528</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.82</v>
+        <v>7.819</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.42</v>
+        <v>4.419</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.27</v>
+        <v>3.272</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.47</v>
+        <v>3.469</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.2</v>
+        <v>5.196</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.14</v>
+        <v>18.137</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.265</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.64</v>
+        <v>4.636</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44792.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.69</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_111.xlsx
+++ b/DATA_goal/Junction_Flooding_111.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44792.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.083</v>
+        <v>5.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.157</v>
+        <v>4.16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.149</v>
+        <v>11.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.366</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.179</v>
+        <v>4.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.739</v>
+        <v>19.74</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.351</v>
+        <v>6.35</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.897</v>
+        <v>2.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.651</v>
+        <v>4.65</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>5.28</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.731</v>
+        <v>4.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.174</v>
+        <v>1.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.905</v>
+        <v>3.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.974</v>
+        <v>5.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.403</v>
+        <v>3.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.477</v>
+        <v>55.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.713</v>
+        <v>11.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.528</v>
+        <v>3.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.819</v>
+        <v>7.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.419</v>
+        <v>4.42</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.608000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.272</v>
+        <v>3.27</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.469</v>
+        <v>3.47</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>3.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.196</v>
+        <v>5.2</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.137</v>
+        <v>18.14</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.265</v>
+        <v>2.26</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.636</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44792.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.47</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9</v>
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>
